--- a/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6021640383956117</v>
+        <v>-0.1774919774011299</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5661283469561902</v>
+        <v>-0.5196267020988498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01783470831609114</v>
+        <v>0.0325297562617544</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-21.98268467582374</v>
+        <v>-9.278788683756147</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7327561558607913</v>
+        <v>-0.3092929561252049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,17 +530,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.06571718014421075</v>
+        <v>0.1248016315341871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5099677704867361</v>
+        <v>0.6159369443829988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03649779535061315</v>
+        <v>0.008473727662179195</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>30.20833333333334</v>
+        <v>28.84615384615384</v>
       </c>
       <c r="I3" t="n">
-        <v>1.006944444444444</v>
+        <v>0.9615384615384615</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,24 +571,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.1635894538606403</v>
+        <v>0.1216459009354899</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5018212838272009</v>
+        <v>0.6122568315852024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04012251111324337</v>
+        <v>0.008989305318093809</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1.999999999999993</v>
+        <v>31.91489361702127</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06666666666666642</v>
+        <v>1.063829787234043</v>
       </c>
     </row>
     <row r="5">
@@ -604,17 +604,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.01063829787234043</v>
+        <v>-0.2232591876208898</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4986684397131602</v>
+        <v>-0.6397588146917783</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04159631540751375</v>
+        <v>0.005679535213878675</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.96825396825396</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.303030303030303</v>
+        <v>-1.132275132275132</v>
       </c>
     </row>
     <row r="6">
@@ -636,44 +636,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8187077961169918</v>
+        <v>-0.2232591876208898</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5307170893986332</v>
+        <v>-0.6397588146917783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02839084839905521</v>
+        <v>0.005679535213878675</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21.72731751953262</v>
+        <v>-36.27118644067797</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7242439173177541</v>
+        <v>-1.209039548022599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6877549453923423</v>
+        <v>0.4150870406189556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4947593592716386</v>
+        <v>0.5558563456770198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04348013385480719</v>
+        <v>0.02051220039743969</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.136212624584719</v>
+        <v>44.05498281786941</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3045404208194906</v>
+        <v>1.468499427262314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6938261875520859</v>
+        <v>0.4387238214882792</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4962211860995714</v>
+        <v>0.6065117240276052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04276827184206777</v>
+        <v>0.009843939826538955</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,36 +733,36 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.200372538584348</v>
+        <v>43.77113385878688</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3066790846194783</v>
+        <v>1.459037795292896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6875624479143827</v>
+        <v>0.1542122823984527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5238176087863585</v>
+        <v>0.5488053605219971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03091472836813939</v>
+        <v>0.02252447137558651</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -770,36 +770,36 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.729129599316773</v>
+        <v>60.01796541657309</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1909709866438924</v>
+        <v>2.000598847219103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2012633339181544</v>
+        <v>0.2798827369439073</v>
       </c>
       <c r="E10" t="n">
-        <v>0.504985074021663</v>
+        <v>0.5690442780486148</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03868376164381944</v>
+        <v>0.01712693638622397</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -807,36 +807,36 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.41880704733602</v>
+        <v>98.55366190695533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.247293568244534</v>
+        <v>3.285122063565177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.02645416575071441</v>
+        <v>38.92386895551257</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5825112595986959</v>
+        <v>0.6459677446395605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01413892787157589</v>
+        <v>0.005089731681936363</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -844,21 +844,21 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11.53846153846153</v>
+        <v>105.0688024818411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3846153846153844</v>
+        <v>3.50229341606137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,35 +867,35 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.2909144867003736</v>
+        <v>0.5459000394754159</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.485479384884529</v>
+        <v>0.5452419622932171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04820998902602479</v>
+        <v>0.02359809974302586</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-7.407407407407407</v>
+        <v>3.481012658227853</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2469135802469135</v>
+        <v>0.1160337552742618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -904,98 +904,135 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.2925492745658386</v>
+        <v>0.5342104002941971</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4835795947409732</v>
+        <v>0.554338971933755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04922416495205205</v>
+        <v>0.02093292095321226</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-7.09923664122138</v>
+        <v>1.374159664988988</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.236641221374046</v>
+        <v>0.04580532216629959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.152260013189712</v>
+        <v>0.4783876621264183</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5641553907230715</v>
+        <v>0.539583875724041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01832644692974312</v>
+        <v>0.02538394688574318</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-11.74644860928734</v>
+        <v>-0.4882427291721368</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3915482869762448</v>
+        <v>-0.01627475763907123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Animal4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1727333764638801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5497537612387592</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02224522561992308</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3.269592787080156</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1089864262360052</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Animal6</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>-43.19458875577047</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.5743133751451577</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01590401696957067</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.1570799416921317</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.4975818926613307</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04211360669251454</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>decrease</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>-13.78710071471624</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0.4595700238238747</v>
+      <c r="H16" t="n">
+        <v>-19.90154048273103</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.663384682757701</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -557,38 +557,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1216459009354899</v>
+        <v>-0.2232591876208898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6122568315852024</v>
+        <v>-0.6397588146917783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008989305318093809</v>
+        <v>0.005679535213878675</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31.91489361702127</v>
+        <v>-33.96825396825396</v>
       </c>
       <c r="I4" t="n">
-        <v>1.063829787234043</v>
+        <v>-1.132275132275132</v>
       </c>
     </row>
     <row r="5">
@@ -604,28 +604,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.2232591876208898</v>
+        <v>0.4150870406189556</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6397588146917783</v>
+        <v>0.5558563456770198</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005679535213878675</v>
+        <v>0.02051220039743969</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-33.96825396825396</v>
+        <v>44.05498281786941</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.132275132275132</v>
+        <v>1.468499427262314</v>
       </c>
     </row>
     <row r="6">
@@ -641,28 +641,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.2232591876208898</v>
+        <v>0.4387238214882792</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6397588146917783</v>
+        <v>0.6065117240276052</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005679535213878675</v>
+        <v>0.009843939826538955</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-36.27118644067797</v>
+        <v>43.77113385878688</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.209039548022599</v>
+        <v>1.459037795292896</v>
       </c>
     </row>
     <row r="7">
@@ -678,17 +678,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4150870406189556</v>
+        <v>0.1542122823984527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5558563456770198</v>
+        <v>0.5488053605219971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02051220039743969</v>
+        <v>0.02252447137558651</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>44.05498281786941</v>
+        <v>60.01796541657309</v>
       </c>
       <c r="I7" t="n">
-        <v>1.468499427262314</v>
+        <v>2.000598847219103</v>
       </c>
     </row>
     <row r="8">
@@ -715,17 +715,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4387238214882792</v>
+        <v>0.2798827369439073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6065117240276052</v>
+        <v>0.5690442780486148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009843939826538955</v>
+        <v>0.01712693638622397</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>43.77113385878688</v>
+        <v>98.55366190695533</v>
       </c>
       <c r="I8" t="n">
-        <v>1.459037795292896</v>
+        <v>3.285122063565177</v>
       </c>
     </row>
     <row r="9">
@@ -752,17 +752,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1542122823984527</v>
+        <v>38.92386895551257</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5488053605219971</v>
+        <v>0.6459677446395605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02252447137558651</v>
+        <v>0.005089731681936363</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -770,36 +770,36 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>60.01796541657309</v>
+        <v>105.0688024818411</v>
       </c>
       <c r="I9" t="n">
-        <v>2.000598847219103</v>
+        <v>3.50229341606137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2798827369439073</v>
+        <v>0.5459000394754159</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5690442780486148</v>
+        <v>0.5452419622932171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01712693638622397</v>
+        <v>0.02359809974302586</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -807,36 +807,36 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>98.55366190695533</v>
+        <v>3.481012658227853</v>
       </c>
       <c r="I10" t="n">
-        <v>3.285122063565177</v>
+        <v>0.1160337552742618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38.92386895551257</v>
+        <v>0.5342104002941971</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6459677446395605</v>
+        <v>0.554338971933755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005089731681936363</v>
+        <v>0.02093292095321226</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>105.0688024818411</v>
+        <v>1.374159664988988</v>
       </c>
       <c r="I11" t="n">
-        <v>3.50229341606137</v>
+        <v>0.04580532216629959</v>
       </c>
     </row>
     <row r="12">
@@ -863,17 +863,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5459000394754159</v>
+        <v>0.4783876621264183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5452419622932171</v>
+        <v>0.539583875724041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02359809974302586</v>
+        <v>0.02538394688574318</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.481012658227853</v>
+        <v>-0.4882427291721368</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1160337552742618</v>
+        <v>-0.01627475763907123</v>
       </c>
     </row>
     <row r="13">
@@ -900,17 +900,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5342104002941971</v>
+        <v>0.1727333764638801</v>
       </c>
       <c r="E13" t="n">
-        <v>0.554338971933755</v>
+        <v>0.5497537612387592</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02093292095321226</v>
+        <v>0.02224522561992308</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -918,16 +918,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.374159664988988</v>
+        <v>3.269592787080156</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04580532216629959</v>
+        <v>0.1089864262360052</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -941,97 +941,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4783876621264183</v>
+        <v>-0.1570799416921317</v>
       </c>
       <c r="E14" t="n">
-        <v>0.539583875724041</v>
+        <v>-0.4975818926613307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02538394688574318</v>
+        <v>0.04211360669251454</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-0.4882427291721368</v>
+        <v>-19.90154048273103</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01627475763907123</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Animal4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1727333764638801</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5497537612387592</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.02224522561992308</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3.269592787080156</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.1089864262360052</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.1570799416921317</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.4975818926613307</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.04211360669251454</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>-19.90154048273103</v>
-      </c>
-      <c r="I16" t="n">
         <v>-0.663384682757701</v>
       </c>
     </row>

--- a/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
+++ b/[5] Tester Results/INTRATRIAL_DIFFERENCES_SIGNIFICANT.xlsx
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38.92386895551257</v>
+        <v>0.3892386895551259</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6459677446395605</v>
+        <v>0.6459677446395607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005089731681936363</v>
+        <v>0.005089731681936354</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>105.0688024818411</v>
       </c>
       <c r="I9" t="n">
-        <v>3.50229341606137</v>
+        <v>3.502293416061371</v>
       </c>
     </row>
     <row r="10">
